--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141953.2566321939</v>
+        <v>139431.7520416757</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>106.5908076132626</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>98.09169675069404</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.5928845197354</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>35.33415019398285</v>
       </c>
       <c r="W4" t="n">
-        <v>163.7300498653535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.72364438435943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>233.4716947511267</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>161.8015669322328</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.5534233013595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.0860508096754</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2669997576634</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>209.2354729467812</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>80.90831282609541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>194.0641876011614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.1557845699836</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2135,10 +2135,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936186</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2287,19 +2287,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365919</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421.6795797345445</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>421.6795797345445</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="D2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4349,10 +4349,10 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4361,19 +4361,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2129.811957562053</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1798.749070218482</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1445.980414948368</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1072.514656687288</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>808.2794197986663</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489473</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727986</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
         <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1845.589903121308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1676.653720193402</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1526.537080781066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1378.623987198673</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915738</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915738</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2459.755921915738</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2459.755921915738</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>2294.372033162856</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>2066.382482264838</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>1845.589903121308</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2489.891202759389</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2281.145561365213</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2027.564500629393</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2027.564500629393</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W5" t="n">
-        <v>2027.564500629393</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.098742368313</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1654.098742368313</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,25 +4632,25 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
         <v>1227.201367341572</v>
@@ -4665,7 +4665,7 @@
         <v>2440.633520129069</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>214.6827127621777</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>214.6827127621777</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>214.6827127621777</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>214.6827127621777</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.255484944676</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.7469765594642</v>
+        <v>383.6188956900846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1434.429244100341</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1145.326377225984</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>890.6418890200973</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>601.2247189831368</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>601.2247189831368</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,10 +5121,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969303</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E22" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,13 +6604,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7454,7 +7454,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.591198401905</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.454437538929298</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>27.39221874047951</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>152.953553377768</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.3141767695142</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.629657607716254e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8013425629417</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822876</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345295058</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26314,7 +26314,7 @@
         <v>317255.876140686</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
@@ -26323,7 +26323,7 @@
         <v>343037.3048682529</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682528</v>
@@ -26332,28 +26332,28 @@
         <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="K2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682526</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.304868253</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
         <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943728</v>
+        <v>94171.38997943721</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26430,22 +26430,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26454,10 +26454,10 @@
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675663</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-984605.0698545156</v>
+        <v>-984791.4632430548</v>
       </c>
       <c r="C6" t="n">
-        <v>119278.7060603731</v>
+        <v>119278.7060603732</v>
       </c>
       <c r="D6" t="n">
-        <v>-40142.56393751864</v>
+        <v>-40142.56393751841</v>
       </c>
       <c r="E6" t="n">
-        <v>-92834.88711976624</v>
+        <v>-92869.62504520193</v>
       </c>
       <c r="F6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621535</v>
       </c>
       <c r="G6" t="n">
-        <v>232577.5746875893</v>
+        <v>232542.8367621533</v>
       </c>
       <c r="H6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621537</v>
       </c>
       <c r="I6" t="n">
-        <v>232577.5746875891</v>
+        <v>232542.8367621536</v>
       </c>
       <c r="J6" t="n">
-        <v>64972.39687760653</v>
+        <v>64937.65895217087</v>
       </c>
       <c r="K6" t="n">
-        <v>232577.5746875888</v>
+        <v>232542.8367621536</v>
       </c>
       <c r="L6" t="n">
-        <v>184283.6046793984</v>
+        <v>184248.8667539626</v>
       </c>
       <c r="M6" t="n">
-        <v>147522.5467520771</v>
+        <v>147487.8088266417</v>
       </c>
       <c r="N6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621534</v>
       </c>
       <c r="O6" t="n">
-        <v>232577.5746875889</v>
+        <v>232542.8367621534</v>
       </c>
       <c r="P6" t="n">
-        <v>232577.574687589</v>
+        <v>232542.8367621535</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>248.0922340074204</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>124.6450541363182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.11978587705497</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>216.8034931298452</v>
       </c>
       <c r="W4" t="n">
-        <v>122.7929484712375</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>51.72857101443495</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>94.28056371900817</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.505033112571397</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.03123005073533</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.8319193299447</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.97093889839016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10.31347632938801</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221144</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453898</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.9351598697838</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.45443753892966</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077842</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
